--- a/public/templates/iDtr_result - John Vincent Ramada.xlsx
+++ b/public/templates/iDtr_result - John Vincent Ramada.xlsx
@@ -1,46 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\School Works\boss jis\ojt\iDTR\public\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42442FB-D98E-48C4-B5A5-20D6ABC26D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <r>
       <t xml:space="preserve">Civil Service Form No. 48                                                                 </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="10"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve">Empolyee No. </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="10"/>
-        <u val="single"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -66,80 +75,62 @@
     </r>
     <r>
       <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="14"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">{      </t>
+      <t xml:space="preserve">      </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Palatino Linotype"/>
-        <b val="false"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="10"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve">Regular days                </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="7"/>
-        <u val="single"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> 10</t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <u/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
         <rFont val="Palatino Linotype"/>
-        <b val="false"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="7"/>
-        <u val="single"/>
       </rPr>
-      <t xml:space="preserve">7:20-11:20; 1:00-5:00 </t>
+      <t xml:space="preserve">:00-12:00; 1:00-7:00 </t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">and arrival Monday</t>
+      <t>and arrival Monday</t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Palatino Linotype"/>
-        <b val="false"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="10"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve">/Friday </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Palatino Linotype"/>
-        <b val="false"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="9"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">as required</t>
+      <t>as required</t>
     </r>
   </si>
   <si>
@@ -167,19 +158,45 @@
     <t>Minutes</t>
   </si>
   <si>
-    <t>7:16</t>
-  </si>
-  <si>
-    <t>11:16</t>
-  </si>
-  <si>
-    <t>6:02</t>
-  </si>
-  <si>
-    <t>6:32</t>
-  </si>
-  <si>
-    <t>8:24</t>
+    <t>10:08</t>
+  </si>
+  <si>
+    <t>12:21</t>
+  </si>
+  <si>
+    <t>2:21</t>
+  </si>
+  <si>
+    <t>(SEE INSTRUCTION ON BACK)</t>
+  </si>
+  <si>
+    <t>In Charge</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VERIFIED </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>as to the prescribed office hours.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I CERTIFY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>on my honor that the above is a true and correct report of the hours of work performed, record of which was made daily at the time of arrival and departure from office.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -187,208 +204,153 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="8"/>
-        <u val="single"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I CERTIFY </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Cambria"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="8"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">on my honor that the above is a true and correct report of the hours of work performed, record of which was made daily at the time of arrival and departure from office.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">VERIFIED </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Cambria"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="8"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">as to the prescribed office hours.</t>
-    </r>
-  </si>
-  <si>
-    <t>In Charge</t>
-  </si>
-  <si>
-    <t>(SEE INSTRUCTION ON BACK)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="16">
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24" x14ac:knownFonts="1">
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8.5"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <i/>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Palatino Linotype"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Palatino Linotype"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Palatino Linotype"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="15.5"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Palatino Linotype"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial Black"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial Black"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="6"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Palatino Linotype"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
+      <u/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Palatino Linotype"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="Palatino Linotype"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -454,9 +416,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -468,7 +428,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="double">
         <color rgb="FF000000"/>
       </right>
       <top/>
@@ -478,8 +438,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="double">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top/>
@@ -493,30 +455,19 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -542,19 +493,30 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -726,205 +688,213 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="65">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="0" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="0" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="0" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="0" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="0" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="1"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="8"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="0" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="8"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="0" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="8"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1248,19 +1218,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:H50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" showGridLines="true" showRowColHeaders="1" topLeftCell="A29">
-      <selection activeCell="B44" sqref="B44:H44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" customHeight="1" ht="20.25">
+    <row r="1" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1269,7 +1236,7 @@
       <c r="G1" s="13"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +1247,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="17"/>
     </row>
-    <row r="3" spans="1:8" customHeight="1" ht="19.5">
+    <row r="3" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
@@ -1291,7 +1258,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
@@ -1302,7 +1269,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="1:8" customHeight="1" ht="15.75">
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
         <v>3</v>
       </c>
@@ -1313,7 +1280,7 @@
       <c r="G5" s="31"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="36" t="s">
         <v>4</v>
       </c>
@@ -1324,7 +1291,7 @@
       <c r="G6" s="37"/>
       <c r="H6" s="38"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
         <v>5</v>
       </c>
@@ -1335,7 +1302,7 @@
       <c r="G7" s="34"/>
       <c r="H7" s="35"/>
     </row>
-    <row r="8" spans="1:8" customHeight="1" ht="18.75">
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>6</v>
       </c>
@@ -1346,7 +1313,7 @@
       <c r="G8" s="34"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:8" customHeight="1" ht="15.75">
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="54" t="s">
         <v>7</v>
       </c>
@@ -1357,7 +1324,7 @@
       <c r="G9" s="55"/>
       <c r="H9" s="56"/>
     </row>
-    <row r="10" spans="1:8" customHeight="1" ht="16.5">
+    <row r="10" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="57" t="s">
         <v>8</v>
@@ -1372,7 +1339,7 @@
       </c>
       <c r="H10" s="61"/>
     </row>
-    <row r="11" spans="1:8" customHeight="1" ht="15.75">
+    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1395,30 +1362,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" customHeight="1" ht="15.75">
+    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7">
-        <v>4</v>
-      </c>
-      <c r="H12" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" customHeight="1" ht="15.75">
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>2</v>
       </c>
@@ -1429,7 +1384,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" customHeight="1" ht="15.75">
+    <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>3</v>
       </c>
@@ -1440,22 +1395,18 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" customHeight="1" ht="15.75">
+    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>4</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" customHeight="1" ht="15.75">
+    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>5</v>
       </c>
@@ -1466,18 +1417,28 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" customHeight="1" ht="15.75">
+    <row r="17" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>6</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2</v>
+      </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" customHeight="1" ht="15.75">
+    <row r="18" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>7</v>
       </c>
@@ -1488,7 +1449,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" customHeight="1" ht="15.75">
+    <row r="19" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>8</v>
       </c>
@@ -1499,7 +1460,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" customHeight="1" ht="15.75">
+    <row r="20" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <v>9</v>
       </c>
@@ -1510,7 +1471,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" customHeight="1" ht="15.75">
+    <row r="21" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>10</v>
       </c>
@@ -1521,7 +1482,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" customHeight="1" ht="15.75">
+    <row r="22" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>11</v>
       </c>
@@ -1532,7 +1493,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" customHeight="1" ht="15.75">
+    <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>12</v>
       </c>
@@ -1543,7 +1504,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" customHeight="1" ht="15.75">
+    <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <v>13</v>
       </c>
@@ -1554,7 +1515,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" customHeight="1" ht="15.75">
+    <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
         <v>14</v>
       </c>
@@ -1565,7 +1526,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" customHeight="1" ht="15.75">
+    <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
         <v>15</v>
       </c>
@@ -1576,7 +1537,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" customHeight="1" ht="15.75">
+    <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
         <v>16</v>
       </c>
@@ -1587,7 +1548,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" customHeight="1" ht="15.75">
+    <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6">
         <v>17</v>
       </c>
@@ -1598,7 +1559,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" customHeight="1" ht="15.75">
+    <row r="29" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
         <v>18</v>
       </c>
@@ -1609,7 +1570,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" customHeight="1" ht="15.75">
+    <row r="30" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
         <v>19</v>
       </c>
@@ -1620,7 +1581,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" customHeight="1" ht="15.75">
+    <row r="31" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6">
         <v>20</v>
       </c>
@@ -1631,7 +1592,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" customHeight="1" ht="15.75">
+    <row r="32" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
         <v>21</v>
       </c>
@@ -1642,7 +1603,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" customHeight="1" ht="15.75">
+    <row r="33" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
         <v>22</v>
       </c>
@@ -1653,10 +1614,8 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B34" s="6">
-        <v>23</v>
-      </c>
+    <row r="34" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="7"/>
@@ -1664,205 +1623,127 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B35" s="6">
-        <v>24</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B36" s="6">
-        <v>25</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B37" s="6">
-        <v>26</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B38" s="6">
-        <v>27</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B39" s="6">
-        <v>28</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B40" s="6">
-        <v>29</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B41" s="6">
-        <v>30</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="1:8" customHeight="1" ht="16.5">
-      <c r="B43" s="62" t="s">
+    <row r="35" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="9">
+        <f>SUM(G12:G35)</f>
+        <v>2</v>
+      </c>
+      <c r="H36" s="9">
+        <f>SUM(H12:H35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="41"/>
+    </row>
+    <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="10">
-        <f>SUM(G12:G41)</f>
-        <v>4</v>
-      </c>
-      <c r="H43" s="10">
-        <f>SUM(H12:H42)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" customHeight="1" ht="24">
-      <c r="B44" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="41"/>
-    </row>
-    <row r="45" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B45" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="44"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="47"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="B47" s="48"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="50"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="B48" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="53"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="26"/>
-    </row>
-    <row r="50" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B50" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="29"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="44"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="50"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="53"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26"/>
+    </row>
+    <row r="43" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="29"/>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="B50:H50"/>
+  <mergeCells count="20">
+    <mergeCell ref="B43:H43"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B36:F36"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B42:H42"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/templates/iDtr_result - John Vincent Ramada.xlsx
+++ b/public/templates/iDtr_result - John Vincent Ramada.xlsx
@@ -1,55 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\School Works\boss jis\ojt\iDTR\public\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42442FB-D98E-48C4-B5A5-20D6ABC26D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <r>
       <t xml:space="preserve">Civil Service Form No. 48                                                                 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Cambria"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
+        <u val="none"/>
       </rPr>
       <t xml:space="preserve">Empolyee No. </t>
     </r>
     <r>
       <rPr>
-        <u/>
+        <rFont val="Times New Roman"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
+        <u val="single"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -75,62 +66,80 @@
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <u val="none"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
       <rPr>
-        <i/>
+        <rFont val="Palatino Linotype"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Palatino Linotype"/>
+        <u val="none"/>
       </rPr>
       <t xml:space="preserve">Regular days                </t>
     </r>
     <r>
       <rPr>
-        <u/>
+        <rFont val="Times New Roman"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
+        <u val="single"/>
       </rPr>
       <t xml:space="preserve"> 10</t>
     </r>
     <r>
       <rPr>
-        <i/>
-        <u/>
+        <rFont val="Palatino Linotype"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Palatino Linotype"/>
+        <u val="single"/>
       </rPr>
       <t xml:space="preserve">:00-12:00; 1:00-7:00 </t>
     </r>
   </si>
   <si>
     <r>
-      <t>and arrival Monday</t>
+      <t xml:space="preserve">and arrival Monday</t>
     </r>
     <r>
       <rPr>
-        <i/>
+        <rFont val="Palatino Linotype"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Palatino Linotype"/>
+        <u val="none"/>
       </rPr>
       <t xml:space="preserve">/Friday </t>
     </r>
     <r>
       <rPr>
-        <i/>
+        <rFont val="Palatino Linotype"/>
+        <b val="false"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Palatino Linotype"/>
+        <u val="none"/>
       </rPr>
-      <t>as required</t>
+      <t xml:space="preserve">as required</t>
     </r>
   </si>
   <si>
@@ -178,11 +187,15 @@
     </r>
     <r>
       <rPr>
+        <rFont val="Cambria"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
+        <u val="none"/>
       </rPr>
-      <t>as to the prescribed office hours.</t>
+      <t xml:space="preserve">as to the prescribed office hours.</t>
     </r>
   </si>
   <si>
@@ -191,11 +204,15 @@
     </r>
     <r>
       <rPr>
+        <rFont val="Cambria"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
+        <u val="none"/>
       </rPr>
-      <t>on my honor that the above is a true and correct report of the hours of work performed, record of which was made daily at the time of arrival and departure from office.</t>
+      <t xml:space="preserve">on my honor that the above is a true and correct report of the hours of work performed, record of which was made daily at the time of arrival and departure from office.</t>
     </r>
   </si>
   <si>
@@ -204,11 +221,13 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <u/>
+        <rFont val="Times New Roman"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
         <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
+        <u val="single"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -217,140 +236,153 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="16">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8.5"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <i/>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Palatino Linotype"/>
     </font>
     <font>
-      <i/>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Palatino Linotype"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Palatino Linotype"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="15.5"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Palatino Linotype"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial Black"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial Black"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Palatino Linotype"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Palatino Linotype"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -688,213 +720,205 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="65">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="1"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="8"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="8"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false" indent="8"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -1218,128 +1242,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" showGridLines="true" showRowColHeaders="1" topLeftCell="A3">
+      <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="1:8" customHeight="1" ht="20.25">
+      <c r="B1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="55"/>
+    </row>
+    <row r="3" spans="1:8" customHeight="1" ht="19.5">
+      <c r="B3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
+    </row>
+    <row r="5" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="36" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
-    </row>
-    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" customHeight="1" ht="18.75">
+      <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="54" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-    </row>
-    <row r="10" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+    </row>
+    <row r="10" spans="1:8" customHeight="1" ht="16.5">
       <c r="B10" s="1"/>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59" t="s">
+      <c r="D10" s="43"/>
+      <c r="E10" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="60" t="s">
+      <c r="F10" s="43"/>
+      <c r="G10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="61"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="46"/>
+    </row>
+    <row r="11" spans="1:8" customHeight="1" ht="15.75">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1362,18 +1389,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" customHeight="1" ht="15.75">
       <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" customHeight="1" ht="15.75">
       <c r="B13" s="6">
         <v>2</v>
       </c>
@@ -1384,7 +1421,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" customHeight="1" ht="15.75">
       <c r="B14" s="6">
         <v>3</v>
       </c>
@@ -1395,7 +1432,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" customHeight="1" ht="15.75">
       <c r="B15" s="6">
         <v>4</v>
       </c>
@@ -1406,7 +1443,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" customHeight="1" ht="15.75">
       <c r="B16" s="6">
         <v>5</v>
       </c>
@@ -1417,28 +1454,18 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" customHeight="1" ht="15.75">
       <c r="B17" s="6">
         <v>6</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="7">
-        <v>2</v>
-      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" customHeight="1" ht="15.75">
       <c r="B18" s="6">
         <v>7</v>
       </c>
@@ -1449,7 +1476,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" customHeight="1" ht="15.75">
       <c r="B19" s="6">
         <v>8</v>
       </c>
@@ -1460,7 +1487,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" customHeight="1" ht="15.75">
       <c r="B20" s="6">
         <v>9</v>
       </c>
@@ -1471,7 +1498,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" customHeight="1" ht="15.75">
       <c r="B21" s="6">
         <v>10</v>
       </c>
@@ -1482,7 +1509,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" customHeight="1" ht="15.75">
       <c r="B22" s="6">
         <v>11</v>
       </c>
@@ -1493,7 +1520,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" customHeight="1" ht="15.75">
       <c r="B23" s="6">
         <v>12</v>
       </c>
@@ -1504,7 +1531,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" customHeight="1" ht="15.75">
       <c r="B24" s="6">
         <v>13</v>
       </c>
@@ -1515,7 +1542,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" customHeight="1" ht="15.75">
       <c r="B25" s="6">
         <v>14</v>
       </c>
@@ -1526,7 +1553,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" customHeight="1" ht="15.75">
       <c r="B26" s="6">
         <v>15</v>
       </c>
@@ -1537,7 +1564,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" customHeight="1" ht="15.75">
       <c r="B27" s="6">
         <v>16</v>
       </c>
@@ -1548,7 +1575,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" customHeight="1" ht="15.75">
       <c r="B28" s="6">
         <v>17</v>
       </c>
@@ -1559,7 +1586,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" customHeight="1" ht="15.75">
       <c r="B29" s="6">
         <v>18</v>
       </c>
@@ -1570,7 +1597,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" customHeight="1" ht="15.75">
       <c r="B30" s="6">
         <v>19</v>
       </c>
@@ -1581,7 +1608,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" customHeight="1" ht="15.75">
       <c r="B31" s="6">
         <v>20</v>
       </c>
@@ -1592,7 +1619,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" customHeight="1" ht="15.75">
       <c r="B32" s="6">
         <v>21</v>
       </c>
@@ -1603,7 +1630,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" customHeight="1" ht="15.75">
       <c r="B33" s="6">
         <v>22</v>
       </c>
@@ -1614,8 +1641,10 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
+    <row r="34" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B34" s="6">
+        <v>23</v>
+      </c>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="7"/>
@@ -1623,127 +1652,291 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-    </row>
-    <row r="36" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="62" t="s">
+    <row r="35" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B35" s="6">
+        <v>24</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B36" s="6">
+        <v>25</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B37" s="6">
+        <v>26</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B38" s="6">
+        <v>27</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B39" s="6">
+        <v>28</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B40" s="6">
+        <v>29</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B41" s="6">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B42" s="6">
+        <v>31</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B43" s="6">
+        <v>32</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B44" s="6">
+        <v>33</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B45" s="6">
+        <v>34</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B46" s="6">
+        <v>35</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B47" s="6">
+        <v>36</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B48" s="6">
+        <v>37</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B50" s="11"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="1:8" customHeight="1" ht="16.5">
+      <c r="B51" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="9">
-        <f>SUM(G12:G35)</f>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="9">
+        <f>SUM(G12:G50)</f>
         <v>2</v>
       </c>
-      <c r="H36" s="9">
-        <f>SUM(H12:H35)</f>
+      <c r="H51" s="9">
+        <f>SUM(H12:H50)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="39" t="s">
+    <row r="52" spans="1:8" customHeight="1" ht="24">
+      <c r="B52" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="41"/>
-    </row>
-    <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="42" t="s">
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="26"/>
+    </row>
+    <row r="53" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B53" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="48"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="50"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="51" t="s">
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="29"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="B54" s="30"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="32"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="35"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="B56" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="53"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="26"/>
-    </row>
-    <row r="43" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="27" t="s">
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="38"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="B57" s="62"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="64"/>
+    </row>
+    <row r="58" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B58" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="29"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B43:H43"/>
+  <mergeCells>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B56:H56"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B51:F51"/>
   </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
 </worksheet>
 </file>
--- a/public/templates/iDtr_result - John Vincent Ramada.xlsx
+++ b/public/templates/iDtr_result - John Vincent Ramada.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <r>
       <t xml:space="preserve">Civil Service Form No. 48                                                                 </t>
@@ -52,13 +52,13 @@
     <t>---------------</t>
   </si>
   <si>
-    <t>John Vincent Ramiso Ramada</t>
+    <t>John Vincent ramiso ramada</t>
   </si>
   <si>
     <t>(Name)</t>
   </si>
   <si>
-    <t>For the month of February - March</t>
+    <t>For the month of March - March</t>
   </si>
   <si>
     <r>
@@ -167,13 +167,7 @@
     <t>Minutes</t>
   </si>
   <si>
-    <t>10:08</t>
-  </si>
-  <si>
-    <t>12:21</t>
-  </si>
-  <si>
-    <t>2:21</t>
+    <t>11:11</t>
   </si>
   <si>
     <t>(SEE INSTRUCTION ON BACK)</t>
@@ -1246,7 +1240,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" showGridLines="true" showRowColHeaders="1" topLeftCell="A3">
       <selection activeCell="B15" sqref="B15:H15"/>
@@ -1397,17 +1391,15 @@
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="7">
-        <v>2</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" customHeight="1" ht="15.75">
@@ -1565,9 +1557,7 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B27" s="6">
-        <v>16</v>
-      </c>
+      <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="7"/>
@@ -1576,341 +1566,101 @@
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B28" s="6">
+      <c r="B28" s="11"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" customHeight="1" ht="16.5">
+      <c r="B29" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="9">
+        <f>SUM(G12:G28)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <f>SUM(H12:H28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" customHeight="1" ht="24">
+      <c r="B30" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B31" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="32"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="38"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="64"/>
+    </row>
+    <row r="36" spans="1:8" customHeight="1" ht="15.75">
+      <c r="B36" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B29" s="6">
-        <v>18</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B30" s="6">
-        <v>19</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B31" s="6">
-        <v>20</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B32" s="6">
-        <v>21</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B33" s="6">
-        <v>22</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B34" s="6">
-        <v>23</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B35" s="6">
-        <v>24</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B36" s="6">
-        <v>25</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B37" s="6">
-        <v>26</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B38" s="6">
-        <v>27</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B39" s="6">
-        <v>28</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B40" s="6">
-        <v>29</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B41" s="6">
-        <v>30</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B42" s="6">
-        <v>31</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B43" s="6">
-        <v>32</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B44" s="6">
-        <v>33</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B45" s="6">
-        <v>34</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B46" s="6">
-        <v>35</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B47" s="6">
-        <v>36</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B48" s="6">
-        <v>37</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B50" s="11"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-    </row>
-    <row r="51" spans="1:8" customHeight="1" ht="16.5">
-      <c r="B51" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="9">
-        <f>SUM(G12:G50)</f>
-        <v>2</v>
-      </c>
-      <c r="H51" s="9">
-        <f>SUM(H12:H50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" customHeight="1" ht="24">
-      <c r="B52" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="26"/>
-    </row>
-    <row r="53" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B53" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="29"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="B54" s="30"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="32"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="35"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="B56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="38"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="B57" s="62"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="64"/>
-    </row>
-    <row r="58" spans="1:8" customHeight="1" ht="15.75">
-      <c r="B58" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="14"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1918,22 +1668,22 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B29:F29"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
